--- a/data/trans_camb/P25A_N_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_N_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,91</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,83</t>
+          <t>-5,0; 4,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,46</t>
+          <t>-3,98; 6,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,2</t>
+          <t>0,18; 13,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 5,04</t>
+          <t>-6,57; 7,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,82</t>
+          <t>-6,41; 7,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,88</t>
+          <t>-0,71; 15,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 4,68</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 5,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 12,55</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>123,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>55,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>69,88%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 97,75</t>
+          <t>-65,94; 155,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 139,21</t>
+          <t>-50,26; 218,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 59,66</t>
+          <t>-6,59; 394,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 51,19</t>
+          <t>-38,0; 67,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 49,42</t>
+          <t>-38,48; 68,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 50,25</t>
+          <t>-4,05; 146,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-33,71; 65,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-31,32; 71,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13,11; 161,29</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>14,62</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,7</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,47</t>
+          <t>-10,66; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 3,9</t>
+          <t>-10,52; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 4,7</t>
+          <t>-5,57; 11,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 9,81</t>
+          <t>-5,12; 10,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 1,62</t>
+          <t>-1,93; 13,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,43</t>
+          <t>5,06; 31,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 4,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 6,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 17,25</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-36,37%</t>
+          <t>-31,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>-27,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,42%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>140,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-6,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>81,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,98; 24,87</t>
+          <t>-72,22; 62,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 74,33</t>
+          <t>-69,47; 86,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 45,98</t>
+          <t>-38,84; 157,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 94,65</t>
+          <t>-40,22; 134,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 19,04</t>
+          <t>-16,61; 192,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 47,8</t>
+          <t>31,7; 430,96</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-45,6; 59,41</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-33,94; 82,76</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 198,4</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>12,69</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 11,03</t>
+          <t>-28,86; 10,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 4,03</t>
+          <t>-27,31; 9,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 14,0</t>
+          <t>-29,27; 5,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 16,3</t>
+          <t>-2,7; 25,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 8,89</t>
+          <t>-6,47; 17,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 6,75</t>
+          <t>-1,3; 28,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 11,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 8,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 11,96</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>-47,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>-52,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>-67,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>160,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>234,27%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-17,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,61; 185,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,54; 99,57</t>
+          <t>-100,0; 174,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 260,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 312,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 114,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 86,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-68,63; 240,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-76,57; 167,09</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-66,98; 222,01</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,49</t>
+          <t>-6,42; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,32</t>
+          <t>-6,18; 2,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,98</t>
+          <t>-1,99; 7,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,55</t>
+          <t>-3,23; 6,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,1</t>
+          <t>-1,97; 7,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,71</t>
+          <t>5,15; 18,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 3,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,14</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 11,07</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>94,27%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>66,7%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 24,32</t>
+          <t>-58,62; 27,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 36,8</t>
+          <t>-54,19; 42,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 36,26</t>
+          <t>-19,6; 109,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 51,81</t>
+          <t>-23,37; 72,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 23,07</t>
+          <t>-15,66; 80,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 29,92</t>
+          <t>32,74; 193,84</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-29,72; 34,62</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-24,86; 47,07</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 124,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
